--- a/01门店信息及账户信息登记表201804150A(1).xlsx
+++ b/01门店信息及账户信息登记表201804150A(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="门店等级信息表" sheetId="1" r:id="rId1"/>
@@ -192,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -244,6 +244,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -251,7 +274,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,7 +311,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,22 +319,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,15 +334,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -334,15 +357,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,31 +374,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,12 +420,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,151 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,8 +722,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,17 +743,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,26 +774,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,6 +801,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -824,10 +824,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,133 +836,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1356,8 +1356,8 @@
   <sheetPr/>
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="6" customFormat="1" spans="1:17">
       <c r="A6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>18</v>
@@ -2344,7 +2344,7 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>

--- a/01门店信息及账户信息登记表201804150A(1).xlsx
+++ b/01门店信息及账户信息登记表201804150A(1).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>夜彩门店信息</t>
   </si>
@@ -86,13 +86,34 @@
     <t>秋名山</t>
   </si>
   <si>
-    <t>卡卡西</t>
-  </si>
-  <si>
-    <t>傻大木</t>
-  </si>
-  <si>
-    <t>卡大佐</t>
+    <t>482013a527964df68ce7a92d4584fb52</t>
+  </si>
+  <si>
+    <t>223b4de2161743d0aa4521fb8bb81fff</t>
+  </si>
+  <si>
+    <t>aa264325ecfc4370b66ba0b6dd55c451</t>
+  </si>
+  <si>
+    <t>麻辣烫</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>锦江区</t>
+  </si>
+  <si>
+    <t>db1afecea8bc484fa0034e951ac4eb43</t>
+  </si>
+  <si>
+    <t>4a9e84b697ef4d35adb9b6926747337f</t>
+  </si>
+  <si>
+    <t>76a6e0ef8a124a5ab6fa27af7b3af3b8</t>
   </si>
   <si>
     <r>
@@ -1357,7 +1378,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1560,31 +1581,31 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="D6" s="7">
-        <v>18825162417</v>
+        <v>18825162411</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I6" s="6">
         <v>18825162417</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="6">
         <v>0.5</v>
@@ -1593,7 +1614,7 @@
         <v>18825162412</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N6" s="6">
         <v>0.4</v>
@@ -1602,7 +1623,7 @@
         <v>18825162411</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="6">
         <v>0.2</v>
@@ -2303,7 +2324,7 @@
     </row>
     <row r="40" ht="90.75" customHeight="1" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2358,7 +2379,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2371,12 +2392,12 @@
     <row r="2" ht="39" customHeight="1" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2387,13 +2408,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
@@ -2402,10 +2423,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2413,25 +2434,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2844,7 +2865,7 @@
     </row>
     <row r="39" ht="90.75" customHeight="1" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>

--- a/01门店信息及账户信息登记表201804150A(1).xlsx
+++ b/01门店信息及账户信息登记表201804150A(1).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>夜彩门店信息</t>
   </si>
@@ -95,35 +95,7 @@
     <t>aa264325ecfc4370b66ba0b6dd55c451</t>
   </si>
   <si>
-    <t>麻辣烫</t>
-  </si>
-  <si>
-    <t>四川</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>锦江区</t>
-  </si>
-  <si>
-    <t>db1afecea8bc484fa0034e951ac4eb43</t>
-  </si>
-  <si>
-    <t>4a9e84b697ef4d35adb9b6926747337f</t>
-  </si>
-  <si>
-    <t>76a6e0ef8a124a5ab6fa27af7b3af3b8</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>备注：</t>
     </r>
     <r>
@@ -165,25 +137,34 @@
     <t>邮箱</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>g</t>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>黄埔支行</t>
+  </si>
+  <si>
+    <t>卡卡西</t>
+  </si>
+  <si>
+    <t>441823199110290419</t>
+  </si>
+  <si>
+    <t>2549004118@qq.com</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>天河支行</t>
+  </si>
+  <si>
+    <t>傻大木</t>
+  </si>
+  <si>
+    <t>441823199110290429</t>
+  </si>
+  <si>
+    <t>19991687524@qq.com</t>
   </si>
   <si>
     <r>
@@ -218,7 +199,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +224,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -255,6 +244,13 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -399,13 +395,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -845,10 +834,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,137 +846,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,7 +1001,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1048,8 +1040,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1059,6 +1054,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1375,10 +1373,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1388,7 +1386,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="10" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="10" width="9.5" customWidth="1"/>
@@ -1400,39 +1398,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:17">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1446,29 +1444,29 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:17">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="21" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="21" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="21" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="25"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:17">
       <c r="A4" s="4" t="s">
@@ -1486,7 +1484,7 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1534,22 +1532,22 @@
         <v>233</v>
       </c>
       <c r="D5" s="7">
-        <v>18825162417</v>
+        <v>18825162416</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="6">
-        <v>18825162417</v>
+        <v>18825162416</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>23</v>
@@ -1558,7 +1556,7 @@
         <v>0.5</v>
       </c>
       <c r="L5" s="6">
-        <v>18825162412</v>
+        <v>18825162416</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>24</v>
@@ -1567,7 +1565,7 @@
         <v>0.4</v>
       </c>
       <c r="O5" s="6">
-        <v>18825162411</v>
+        <v>18825162416</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>25</v>
@@ -1576,68 +1574,36 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:17">
+    <row r="6" spans="1:17">
       <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6">
-        <v>123</v>
-      </c>
-      <c r="D6" s="7">
-        <v>18825162411</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="6">
-        <v>18825162417</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="6">
-        <v>18825162412</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="O6" s="6">
-        <v>18825162411</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>0.2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="19"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1652,13 +1618,13 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="19"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1673,13 +1639,13 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1694,13 +1660,13 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1715,13 +1681,13 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="19"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1736,13 +1702,13 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="19"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1757,13 +1723,13 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1778,13 +1744,13 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1799,13 +1765,13 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="19"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1820,13 +1786,13 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="19"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1841,13 +1807,13 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="19"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1862,13 +1828,13 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="19"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1883,13 +1849,13 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="19"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1904,13 +1870,13 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="19"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1925,13 +1891,13 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1946,13 +1912,13 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1967,13 +1933,13 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="19"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1988,13 +1954,13 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="19"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -2009,13 +1975,13 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="19"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -2030,13 +1996,13 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="19"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -2051,13 +2017,13 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="19"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -2072,13 +2038,13 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="19"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2093,13 +2059,13 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="19"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2114,13 +2080,13 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="19"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2135,13 +2101,13 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="19"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -2156,13 +2122,13 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -2177,13 +2143,13 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="19"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -2198,13 +2164,13 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="19"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -2219,13 +2185,13 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="19"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2240,13 +2206,13 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -2261,13 +2227,13 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="19"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -2282,13 +2248,13 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="19"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -2301,47 +2267,26 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="6">
-        <v>35</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-    </row>
-    <row r="40" ht="90.75" customHeight="1" spans="1:17">
-      <c r="A40" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+    <row r="39" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A39" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2350,7 +2295,7 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A40:Q40"/>
+    <mergeCell ref="A39:Q39"/>
     <mergeCell ref="A2:D3"/>
     <mergeCell ref="E2:H3"/>
   </mergeCells>
@@ -2366,7 +2311,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2379,7 +2324,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2392,12 +2337,12 @@
     <row r="2" ht="39" customHeight="1" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2408,13 +2353,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
@@ -2423,10 +2368,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2434,38 +2379,52 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="D4" s="7">
+        <v>12345678</v>
+      </c>
+      <c r="E4" s="6">
+        <v>18825162416</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7">
+        <v>23333</v>
+      </c>
+      <c r="E5" s="6">
+        <v>15915152841</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6">
@@ -2864,16 +2823,16 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" ht="90.75" customHeight="1" spans="1:8">
-      <c r="A39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="A39" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2882,6 +2841,10 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A39:H39"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" display="2549004118@qq.com"/>
+    <hyperlink ref="H5" r:id="rId2" display="19991687524@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/01门店信息及账户信息登记表201804150A(1).xlsx
+++ b/01门店信息及账户信息登记表201804150A(1).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\yeCai\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="门店等级信息表" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>夜彩门店信息</t>
   </si>
@@ -72,12 +77,6 @@
   </si>
   <si>
     <t>藤原豆腐</t>
-  </si>
-  <si>
-    <t>广东</t>
-  </si>
-  <si>
-    <t>广州</t>
   </si>
   <si>
     <t>黄浦区</t>
@@ -188,18 +187,20 @@
 1、用于登记作为中介/代理以及相关利益的分配账户。</t>
     </r>
   </si>
+  <si>
+    <t>广东省</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,68 +254,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -323,87 +265,31 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,192 +298,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -728,255 +446,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,21 +480,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,83 +540,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1371,22 +818,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="9" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="10" width="9.5" customWidth="1"/>
@@ -1397,78 +843,78 @@
     <col min="17" max="17" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:17">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:17">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="23" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="23" t="s">
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="23" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:17">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +930,7 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1521,7 +967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1535,46 +981,46 @@
         <v>18825162416</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="H5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="I5" s="6">
         <v>18825162416</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L5" s="6">
         <v>18825162416</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N5" s="6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="O5" s="6">
         <v>18825162416</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1582,7 +1028,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1595,7 +1041,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1603,7 +1049,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1616,7 +1062,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1624,7 +1070,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1637,7 +1083,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1645,7 +1091,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1658,7 +1104,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1666,7 +1112,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1679,7 +1125,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1687,7 +1133,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1700,7 +1146,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1708,7 +1154,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1721,7 +1167,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1729,7 +1175,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1742,7 +1188,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1750,7 +1196,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="20"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1763,7 +1209,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1771,7 +1217,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1784,7 +1230,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1792,7 +1238,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1805,7 +1251,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -1813,7 +1259,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="20"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1826,7 +1272,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -1834,7 +1280,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1847,7 +1293,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -1855,7 +1301,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1868,7 +1314,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -1876,7 +1322,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1889,7 +1335,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -1897,7 +1343,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1910,7 +1356,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -1918,7 +1364,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="20"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1931,7 +1377,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -1939,7 +1385,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1952,7 +1398,7 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -1960,7 +1406,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1973,7 +1419,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -1981,7 +1427,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1994,7 +1440,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -2002,7 +1448,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -2015,7 +1461,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -2023,7 +1469,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -2036,7 +1482,7 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -2044,7 +1490,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2057,7 +1503,7 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -2065,7 +1511,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2078,7 +1524,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -2086,7 +1532,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2099,7 +1545,7 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -2107,7 +1553,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -2120,7 +1566,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -2128,7 +1574,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -2141,7 +1587,7 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -2149,7 +1595,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="20"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -2162,7 +1608,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -2170,7 +1616,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="20"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -2183,7 +1629,7 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -2191,7 +1637,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="20"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2204,7 +1650,7 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>33</v>
       </c>
@@ -2212,7 +1658,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="20"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -2225,7 +1671,7 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>34</v>
       </c>
@@ -2233,7 +1679,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="20"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -2246,7 +1692,7 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>35</v>
       </c>
@@ -2254,7 +1700,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="20"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -2267,54 +1713,53 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" ht="90.75" customHeight="1" spans="1:17">
-      <c r="A39" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
+    <row r="39" spans="1:17" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A39:Q39"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="E2:H3"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="I2:Q2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A39:Q39"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="E2:H3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="4" width="12.625" style="2" customWidth="1"/>
@@ -2322,44 +1767,44 @@
     <col min="6" max="6" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" ht="39" customHeight="1" spans="1:8">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
@@ -2368,21 +1813,21 @@
         <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7">
         <v>12345678</v>
@@ -2391,24 +1836,24 @@
         <v>18825162416</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
         <v>23333</v>
@@ -2417,16 +1862,16 @@
         <v>15915152841</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -2438,7 +1883,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -2450,7 +1895,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -2462,7 +1907,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -2474,7 +1919,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -2486,7 +1931,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -2498,7 +1943,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -2510,7 +1955,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -2522,7 +1967,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -2534,7 +1979,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -2546,7 +1991,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -2558,7 +2003,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -2570,7 +2015,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -2582,7 +2027,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -2594,7 +2039,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -2606,7 +2051,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -2618,7 +2063,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -2630,7 +2075,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -2642,7 +2087,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -2654,7 +2099,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -2666,7 +2111,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -2678,7 +2123,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -2690,7 +2135,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -2702,7 +2147,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -2714,7 +2159,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -2726,7 +2171,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -2738,7 +2183,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -2750,7 +2195,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -2762,7 +2207,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -2774,7 +2219,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -2786,7 +2231,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>33</v>
       </c>
@@ -2798,7 +2243,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>34</v>
       </c>
@@ -2810,7 +2255,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>35</v>
       </c>
@@ -2822,17 +2267,17 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" ht="90.75" customHeight="1" spans="1:8">
-      <c r="A39" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+    <row r="39" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2841,11 +2286,11 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A39:H39"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="2549004118@qq.com"/>
-    <hyperlink ref="H5" r:id="rId2" display="19991687524@qq.com"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01门店信息及账户信息登记表201804150A(1).xlsx
+++ b/01门店信息及账户信息登记表201804150A(1).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\yeCai\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="门店等级信息表" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>夜彩门店信息</t>
   </si>
@@ -79,22 +74,46 @@
     <t>藤原豆腐</t>
   </si>
   <si>
+    <t>广东省</t>
+  </si>
+  <si>
+    <t>广州市</t>
+  </si>
+  <si>
     <t>黄浦区</t>
   </si>
   <si>
     <t>秋名山</t>
   </si>
   <si>
-    <t>482013a527964df68ce7a92d4584fb52</t>
-  </si>
-  <si>
-    <t>223b4de2161743d0aa4521fb8bb81fff</t>
-  </si>
-  <si>
-    <t>aa264325ecfc4370b66ba0b6dd55c451</t>
+    <t>测试账号1</t>
   </si>
   <si>
     <r>
+      <t>测试账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>测试账号3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>备注：</t>
     </r>
     <r>
@@ -187,20 +206,18 @@
 1、用于登记作为中介/代理以及相关利益的分配账户。</t>
     </r>
   </si>
-  <si>
-    <t>广东省</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +258,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -254,9 +278,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <color rgb="FF606266"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF606266"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -265,31 +315,131 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,24 +448,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -446,12 +782,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -480,32 +1055,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -516,48 +1112,68 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -818,21 +1434,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="10" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="10" width="9.5" customWidth="1"/>
@@ -843,78 +1460,78 @@
     <col min="17" max="17" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:17">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="22" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-    </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="17" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:17">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="17" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="17" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:17">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -930,7 +1547,7 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -967,7 +1584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -978,49 +1595,49 @@
         <v>233</v>
       </c>
       <c r="D5" s="7">
-        <v>18825162416</v>
+        <v>18825162421</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" s="6">
-        <v>18825162416</v>
+        <v>15915152844</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="6">
         <v>2</v>
       </c>
-      <c r="L5" s="6">
-        <v>18825162416</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>22</v>
+      <c r="L5" s="27">
+        <v>15915152845</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="N5" s="6">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6">
-        <v>18825162416</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="O5" s="27">
+        <v>15915152846</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="Q5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1028,7 +1645,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1041,7 +1658,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1049,7 +1666,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1062,7 +1679,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1070,7 +1687,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1083,7 +1700,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1091,7 +1708,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1104,7 +1721,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1112,7 +1729,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1125,7 +1742,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1133,7 +1750,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1146,7 +1763,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1154,7 +1771,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1167,7 +1784,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1175,7 +1792,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1188,7 +1805,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1196,7 +1813,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1209,7 +1826,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1217,7 +1834,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1230,7 +1847,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1238,7 +1855,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1251,7 +1868,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -1259,7 +1876,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1272,7 +1889,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -1280,7 +1897,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1293,7 +1910,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -1301,7 +1918,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1314,7 +1931,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -1322,7 +1939,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1335,7 +1952,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -1343,7 +1960,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1356,7 +1973,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -1364,7 +1981,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1377,7 +1994,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -1385,7 +2002,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1398,7 +2015,7 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -1406,7 +2023,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1419,7 +2036,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -1427,7 +2044,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1440,7 +2057,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -1448,7 +2065,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -1461,7 +2078,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -1469,7 +2086,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1482,7 +2099,7 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -1490,7 +2107,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1503,7 +2120,7 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -1511,7 +2128,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -1524,7 +2141,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -1532,7 +2149,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -1545,7 +2162,7 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -1553,7 +2170,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -1566,7 +2183,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -1574,7 +2191,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -1587,7 +2204,7 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -1595,7 +2212,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -1608,7 +2225,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -1616,7 +2233,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -1629,7 +2246,7 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -1637,7 +2254,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -1650,7 +2267,7 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="6">
         <v>33</v>
       </c>
@@ -1658,7 +2275,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -1671,7 +2288,7 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" s="6">
         <v>34</v>
       </c>
@@ -1679,7 +2296,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -1692,7 +2309,7 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" s="6">
         <v>35</v>
       </c>
@@ -1700,7 +2317,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -1713,53 +2330,54 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="1:17" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
+    <row r="39" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A39" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A39:Q39"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="E2:H3"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="I2:Q2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A39:Q39"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="E2:H3"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="4" width="12.625" style="2" customWidth="1"/>
@@ -1767,44 +2385,44 @@
     <col min="6" max="6" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="39" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="39" customHeight="1" spans="1:8">
       <c r="A2" s="3"/>
-      <c r="B2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
@@ -1813,21 +2431,21 @@
         <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7">
         <v>12345678</v>
@@ -1836,24 +2454,24 @@
         <v>18825162416</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
         <v>23333</v>
@@ -1862,16 +2480,16 @@
         <v>15915152841</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1883,7 +2501,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1895,7 +2513,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1907,7 +2525,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1919,7 +2537,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1931,7 +2549,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1943,7 +2561,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1955,7 +2573,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1967,7 +2585,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1979,7 +2597,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1991,7 +2609,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -2003,7 +2621,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -2015,7 +2633,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -2027,7 +2645,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -2039,7 +2657,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -2051,7 +2669,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -2063,7 +2681,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -2075,7 +2693,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -2087,7 +2705,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -2099,7 +2717,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -2111,7 +2729,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -2123,7 +2741,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -2135,7 +2753,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -2147,7 +2765,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -2159,7 +2777,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -2171,7 +2789,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -2183,7 +2801,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -2195,7 +2813,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -2207,7 +2825,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -2219,7 +2837,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -2231,7 +2849,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="6">
         <v>33</v>
       </c>
@@ -2243,7 +2861,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="6">
         <v>34</v>
       </c>
@@ -2255,7 +2873,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="6">
         <v>35</v>
       </c>
@@ -2267,17 +2885,17 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
+    <row r="39" ht="90.75" customHeight="1" spans="1:8">
+      <c r="A39" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2286,11 +2904,11 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A39:H39"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
-    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId1" display="2549004118@qq.com"/>
+    <hyperlink ref="H5" r:id="rId2" display="19991687524@qq.com"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/01门店信息及账户信息登记表201804150A(1).xlsx
+++ b/01门店信息及账户信息登记表201804150A(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="门店等级信息表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>夜彩门店信息</t>
   </si>
@@ -50,6 +50,9 @@
     <t>电话号码</t>
   </si>
   <si>
+    <t>渠道号</t>
+  </si>
+  <si>
     <t>省份</t>
   </si>
   <si>
@@ -69,41 +72,6 @@
   </si>
   <si>
     <t>返点比例</t>
-  </si>
-  <si>
-    <t>藤原豆腐</t>
-  </si>
-  <si>
-    <t>广东省</t>
-  </si>
-  <si>
-    <t>广州市</t>
-  </si>
-  <si>
-    <t>黄浦区</t>
-  </si>
-  <si>
-    <t>秋名山</t>
-  </si>
-  <si>
-    <t>测试账号1</t>
-  </si>
-  <si>
-    <r>
-      <t>测试账号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>测试账号3</t>
   </si>
   <si>
     <r>
@@ -212,12 +180,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,13 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -278,16 +239,34 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF606266"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF606266"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -298,7 +277,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,126 +376,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,25 +408,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,157 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,16 +723,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,6 +784,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -830,207 +816,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,6 +997,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1091,16 +1030,13 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1111,12 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1436,10 +1366,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1447,57 +1377,59 @@
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="12" max="13" width="9.875" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="16" width="9.875" customWidth="1"/>
-    <col min="17" max="17" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="14" width="9.875" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="17" width="9.875" customWidth="1"/>
+    <col min="18" max="18" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:17">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:18">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1505,33 +1437,35 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:17">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="16"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:18">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="18"/>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="24" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="24" t="s">
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="26"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:17">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="26"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1544,16 +1478,16 @@
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -1562,11 +1496,11 @@
       <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>16</v>
@@ -1575,7 +1509,7 @@
         <v>17</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>16</v>
@@ -1583,70 +1517,42 @@
       <c r="Q4" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6">
-        <v>233</v>
-      </c>
-      <c r="D5" s="7">
-        <v>18825162421</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="6">
-        <v>15915152844</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="6">
-        <v>2</v>
-      </c>
-      <c r="L5" s="27">
-        <v>15915152845</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="6">
-        <v>2</v>
-      </c>
-      <c r="O5" s="27">
-        <v>15915152846</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="6"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1657,17 +1563,18 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1678,17 +1585,18 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1699,17 +1607,18 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1720,17 +1629,18 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1741,17 +1651,18 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1762,17 +1673,18 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1783,17 +1695,18 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1804,17 +1717,18 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1825,17 +1739,18 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1846,17 +1761,18 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="6"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1867,17 +1783,18 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="6"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1888,17 +1805,18 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1909,17 +1827,18 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="6"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1930,17 +1849,18 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="6"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1951,17 +1871,18 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1972,17 +1893,18 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="6"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1993,17 +1915,18 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="6"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -2014,17 +1937,18 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="6"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -2035,17 +1959,18 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -2056,17 +1981,18 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="6"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -2077,17 +2003,18 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="6"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -2098,17 +2025,18 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -2119,17 +2047,18 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="6"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -2140,17 +2069,18 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="6"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -2161,17 +2091,18 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="6"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -2182,17 +2113,18 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="6"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -2203,17 +2135,18 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="6"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -2224,17 +2157,18 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="6"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -2245,17 +2179,18 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="6"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -2266,17 +2201,18 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="6"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -2287,17 +2223,18 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="6"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -2308,59 +2245,40 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="6">
-        <v>35</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" ht="90.75" customHeight="1" spans="1:17">
-      <c r="A39" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
+      <c r="R37" s="6"/>
+    </row>
+    <row r="38" ht="90.75" customHeight="1" spans="1:18">
+      <c r="A38" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A39:Q39"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="E2:H3"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A2:E3"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -2387,7 +2305,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2400,12 +2318,12 @@
     <row r="2" ht="39" customHeight="1" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2416,25 +2334,25 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2442,10 +2360,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
         <v>12345678</v>
@@ -2454,13 +2372,13 @@
         <v>18825162416</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2468,10 +2386,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
         <v>23333</v>
@@ -2480,13 +2398,13 @@
         <v>15915152841</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2887,7 +2805,7 @@
     </row>
     <row r="39" ht="90.75" customHeight="1" spans="1:8">
       <c r="A39" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>

--- a/01门店信息及账户信息登记表201804150A(1).xlsx
+++ b/01门店信息及账户信息登记表201804150A(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="门店等级信息表" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
     <t>黄埔支行</t>
   </si>
   <si>
-    <t>卡卡西</t>
+    <t>卡卡西3</t>
   </si>
   <si>
     <t>441823199110290419</t>
@@ -144,7 +144,7 @@
     <t>天河支行</t>
   </si>
   <si>
-    <t>傻大木</t>
+    <t>傻大木3</t>
   </si>
   <si>
     <t>441823199110290429</t>
@@ -180,12 +180,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -247,7 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,13 +255,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -280,75 +266,6 @@
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,6 +292,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -408,19 +401,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,157 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,19 +714,34 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -750,21 +758,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,7 +790,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,10 +817,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,16 +829,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -854,119 +847,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,9 +990,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1030,13 +1020,10 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1368,7 +1355,7 @@
   <sheetPr/>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1377,10 +1364,9 @@
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="10" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
     <col min="10" max="11" width="9.5" customWidth="1"/>
@@ -1392,41 +1378,41 @@
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:18">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,30 +1426,30 @@
       <c r="R2" s="3"/>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="24" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="24" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="24" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="26"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:18">
       <c r="A4" s="4" t="s">
@@ -1484,7 +1470,7 @@
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -1527,10 +1513,10 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="21"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1549,10 +1535,10 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1571,10 +1557,10 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="22"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1593,10 +1579,10 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="21"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1615,10 +1601,10 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1637,10 +1623,10 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="21"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1659,10 +1645,10 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="21"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1681,10 +1667,10 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="21"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1703,10 +1689,10 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="21"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1725,10 +1711,10 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="21"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="22"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1747,10 +1733,10 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="21"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="22"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1769,10 +1755,10 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="21"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1791,10 +1777,10 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="21"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1813,10 +1799,10 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="21"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="22"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1835,10 +1821,10 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="21"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="22"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1857,10 +1843,10 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="21"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="22"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1879,10 +1865,10 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="21"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="22"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1901,10 +1887,10 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="22"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1923,10 +1909,10 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="21"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="22"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -1945,10 +1931,10 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="21"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="22"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -1967,10 +1953,10 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="21"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="22"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1989,10 +1975,10 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="21"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="22"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -2011,10 +1997,10 @@
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="21"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="22"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -2033,10 +2019,10 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="21"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="22"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -2055,10 +2041,10 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="21"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="22"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -2077,10 +2063,10 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="21"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="22"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -2099,10 +2085,10 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="21"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="22"/>
+      <c r="G31" s="20"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -2121,10 +2107,10 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="21"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="22"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -2143,10 +2129,10 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="21"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="22"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -2165,10 +2151,10 @@
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="21"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="22"/>
+      <c r="G34" s="20"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -2187,10 +2173,10 @@
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="21"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="22"/>
+      <c r="G35" s="20"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -2209,10 +2195,10 @@
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="21"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="22"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -2231,10 +2217,10 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="21"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="22"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -2248,7 +2234,7 @@
       <c r="R37" s="6"/>
     </row>
     <row r="38" ht="90.75" customHeight="1" spans="1:18">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="9"/>
@@ -2291,8 +2277,8 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2369,12 +2355,12 @@
         <v>12345678</v>
       </c>
       <c r="E4" s="6">
-        <v>18825162416</v>
+        <v>18825162405</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="25" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -2395,12 +2381,12 @@
         <v>23333</v>
       </c>
       <c r="E5" s="6">
-        <v>15915152841</v>
+        <v>15915152806</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="25" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="8" t="s">

--- a/01门店信息及账户信息登记表201804150A(1).xlsx
+++ b/01门店信息及账户信息登记表201804150A(1).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\yeCai\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="门店等级信息表" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>夜彩门店信息</t>
   </si>
@@ -174,18 +179,77 @@
 1、用于登记作为中介/代理以及相关利益的分配账户。</t>
     </r>
   </si>
+  <si>
+    <t>藤原豆腐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄埔区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋名山</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8825162417</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18825162416</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18825162415</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789003</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,148 +297,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,204 +332,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -711,255 +480,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,21 +514,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,80 +571,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1351,107 +867,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="5" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="31" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="9" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="11" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="14" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="21" style="9" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="17" width="9.875" customWidth="1"/>
+    <col min="16" max="16" width="15.875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="9.875" customWidth="1"/>
     <col min="18" max="18" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:18">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="22" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="22" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="22" t="s">
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:18">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1464,13 +983,13 @@
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="29" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -1479,7 +998,7 @@
       <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -1488,7 +1007,7 @@
       <c r="L4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="4" t="s">
@@ -1497,7 +1016,7 @@
       <c r="O4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="Q4" s="4" t="s">
@@ -1507,781 +1026,848 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1231213</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18825162417</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="6">
+        <v>3</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1231213</v>
+      </c>
+      <c r="D6" s="7">
+        <v>18825162417</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="6">
+        <v>2</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="P11" s="11"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="P14" s="11"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="P15" s="11"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="P16" s="11"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="P17" s="11"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="20"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="P19" s="11"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="P22" s="11"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="P23" s="11"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="P24" s="11"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="P25" s="11"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="P26" s="11"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="P27" s="11"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="M28" s="11"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="P28" s="11"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="P29" s="11"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="20"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="P30" s="11"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="M31" s="11"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="P31" s="11"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="20"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="M32" s="11"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="P32" s="11"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="20"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="P33" s="11"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="20"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="M34" s="11"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
+      <c r="P34" s="11"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>33</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="20"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
+      <c r="P35" s="11"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>34</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
+      <c r="M36" s="11"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
+      <c r="P36" s="11"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>35</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="20"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+      <c r="M37" s="11"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
+      <c r="P37" s="11"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
-    <row r="38" ht="90.75" customHeight="1" spans="1:18">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A2:E3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="J2:R2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A2:E3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="4" width="12.625" style="2" customWidth="1"/>
@@ -2289,33 +1875,33 @@
     <col min="6" max="6" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" ht="39" customHeight="1" spans="1:8">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2341,7 +1927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2360,14 +1946,14 @@
       <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -2386,14 +1972,14 @@
       <c r="F5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -2405,7 +1991,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -2417,7 +2003,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -2429,7 +2015,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -2441,7 +2027,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -2453,7 +2039,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -2465,7 +2051,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -2477,7 +2063,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -2489,7 +2075,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -2501,7 +2087,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -2513,7 +2099,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -2525,7 +2111,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -2537,7 +2123,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -2549,7 +2135,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -2561,7 +2147,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -2573,7 +2159,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -2585,7 +2171,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -2597,7 +2183,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -2609,7 +2195,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -2621,7 +2207,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -2633,7 +2219,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -2645,7 +2231,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -2657,7 +2243,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -2669,7 +2255,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -2681,7 +2267,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -2693,7 +2279,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -2705,7 +2291,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -2717,7 +2303,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -2729,7 +2315,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -2741,7 +2327,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -2753,7 +2339,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>33</v>
       </c>
@@ -2765,7 +2351,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>34</v>
       </c>
@@ -2777,7 +2363,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>35</v>
       </c>
@@ -2789,17 +2375,17 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" ht="90.75" customHeight="1" spans="1:8">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2808,11 +2394,11 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A39:H39"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="2549004118@qq.com"/>
-    <hyperlink ref="H5" r:id="rId2" display="19991687524@qq.com"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>